--- a/FuseLinks/ElosFranco_Linha.xlsx
+++ b/FuseLinks/ElosFranco_Linha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fusivel Isolador</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fusivel Consumidor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Isolador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Isolador</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase C Isolador</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
         </is>
@@ -518,11 +528,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>14.7666</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -546,7 +558,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.7666</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -554,6 +566,14 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -575,11 +595,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -611,6 +633,14 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -632,11 +662,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -668,6 +700,14 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -687,11 +727,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1.69881</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.7666</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>1.69881</v>
@@ -705,13 +749,11 @@
       <c r="I5" t="n">
         <v>14.7666</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1.69881</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>14.7666</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -719,6 +761,14 @@
         </is>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,11 +790,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -776,6 +828,14 @@
         </is>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -795,11 +855,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.606476</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23.1419</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>0.606476</v>
@@ -813,13 +877,11 @@
       <c r="I7" t="n">
         <v>23.1419</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0.606476</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>23.1419</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -827,6 +889,14 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -848,11 +918,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -884,6 +956,14 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,11 +985,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -941,6 +1023,14 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -960,11 +1050,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.606475</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23.142</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>0.606475</v>
@@ -978,13 +1072,11 @@
       <c r="I10" t="n">
         <v>23.142</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0.606475</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>23.142</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -992,6 +1084,14 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,11 +1113,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1049,6 +1151,14 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1068,11 +1178,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1.24552</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.8927</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>1.24552</v>
@@ -1086,13 +1200,11 @@
       <c r="I12" t="n">
         <v>26.8927</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1.24552</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.8927</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1100,6 +1212,14 @@
         </is>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,11 +1241,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>12.2658</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1149,7 +1271,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.2658</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1157,6 +1279,14 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1178,11 +1308,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>14.8087</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1206,7 +1338,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>14.8087</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1214,6 +1346,14 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,11 +1373,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1.24552</v>
-      </c>
-      <c r="E15" t="n">
-        <v>26.8927</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>1.24552</v>
@@ -1251,13 +1395,11 @@
       <c r="I15" t="n">
         <v>26.8927</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1.24552</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.8927</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1265,6 +1407,14 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1286,11 +1436,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1322,6 +1474,14 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1341,11 +1501,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.862414</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32.088</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>0.862414</v>
@@ -1359,13 +1523,11 @@
       <c r="I17" t="n">
         <v>32.088</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J17" t="n">
+        <v>0.862414</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>32.088</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1373,6 +1535,14 @@
         </is>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1394,11 +1564,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>13.9377</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1422,7 +1594,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>13.9377</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1430,6 +1602,14 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,11 +1631,13 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>18.5529</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1479,7 +1661,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>18.5529</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1487,6 +1669,14 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1506,11 +1696,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0.862415</v>
-      </c>
-      <c r="E20" t="n">
-        <v>32.0879</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>0.862415</v>
@@ -1524,13 +1718,11 @@
       <c r="I20" t="n">
         <v>32.0879</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J20" t="n">
+        <v>0.862415</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>32.0879</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1538,6 +1730,14 @@
         </is>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,11 +1759,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1595,6 +1797,14 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,11 +1824,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0.6493719999999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>36.7291</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>0.6493719999999999</v>
@@ -1632,13 +1846,11 @@
       <c r="I22" t="n">
         <v>36.7291</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J22" t="n">
+        <v>0.6493719999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>36.7291</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1646,6 +1858,14 @@
         </is>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1667,11 +1887,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>15.469</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1695,7 +1917,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>15.469</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1703,6 +1925,14 @@
         </is>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1724,11 +1954,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>21.9609</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1752,7 +1984,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>21.9609</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1760,6 +1992,14 @@
         </is>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1779,11 +2019,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0.6493719999999999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>36.7292</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>0.6493719999999999</v>
@@ -1797,13 +2041,11 @@
       <c r="I25" t="n">
         <v>36.7292</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J25" t="n">
+        <v>0.6493719999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>36.7292</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1811,6 +2053,14 @@
         </is>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1832,11 +2082,13 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1868,6 +2120,14 @@
         </is>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1887,11 +2147,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0.553461</v>
-      </c>
-      <c r="E27" t="n">
-        <v>39.608</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F27" t="n">
         <v>0.553461</v>
@@ -1905,13 +2169,11 @@
       <c r="I27" t="n">
         <v>39.608</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J27" t="n">
+        <v>0.553461</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.608</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1919,6 +2181,14 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1940,11 +2210,13 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>16.9718</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1968,7 +2240,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>16.9718</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1976,6 +2248,14 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,11 +2277,13 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>23.4123</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2025,7 +2307,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>23.4123</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2033,6 +2315,14 @@
         </is>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2052,11 +2342,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0.553458</v>
-      </c>
-      <c r="E30" t="n">
-        <v>39.6081</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>0.553458</v>
@@ -2070,13 +2364,11 @@
       <c r="I30" t="n">
         <v>39.6081</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J30" t="n">
+        <v>0.553458</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>39.6081</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2084,6 +2376,14 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2105,11 +2405,13 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2141,6 +2443,14 @@
         </is>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,11 +2472,13 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>51.4315</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2190,7 +2502,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.4315</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2198,6 +2510,14 @@
         </is>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2219,11 +2539,13 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>21.9855</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2247,7 +2569,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>21.9855</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2255,6 +2577,14 @@
         </is>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2276,11 +2606,13 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>31.3203</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2304,7 +2636,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>31.3203</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2312,6 +2644,14 @@
         </is>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2333,11 +2673,13 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>51.4315</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2361,7 +2703,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.4315</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2369,6 +2711,14 @@
         </is>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2390,11 +2740,13 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2426,6 +2778,14 @@
         </is>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,11 +2805,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0.195442</v>
-      </c>
-      <c r="E37" t="n">
-        <v>60.2167</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F37" t="n">
         <v>0.195442</v>
@@ -2463,13 +2827,11 @@
       <c r="I37" t="n">
         <v>60.2167</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J37" t="n">
+        <v>0.195442</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.2167</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2477,6 +2839,14 @@
         </is>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2498,11 +2868,13 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>25.9682</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2526,7 +2898,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>25.9682</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2534,6 +2906,14 @@
         </is>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2555,11 +2935,13 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>37.1016</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2583,7 +2965,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.1016</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2591,6 +2973,14 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2610,11 +3000,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>0.195443</v>
-      </c>
-      <c r="E40" t="n">
-        <v>60.2166</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>0.195443</v>
@@ -2628,13 +3022,11 @@
       <c r="I40" t="n">
         <v>60.2166</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J40" t="n">
+        <v>0.195443</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.2166</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2642,6 +3034,14 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2663,11 +3063,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2699,6 +3101,14 @@
         </is>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2718,11 +3128,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0.172418</v>
-      </c>
-      <c r="E42" t="n">
-        <v>63.6597</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>0.172418</v>
@@ -2736,13 +3150,11 @@
       <c r="I42" t="n">
         <v>63.6597</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J42" t="n">
+        <v>0.172418</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>63.6597</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2750,6 +3162,14 @@
         </is>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2771,11 +3191,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>27.6319</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2799,7 +3221,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>27.6319</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2807,6 +3229,14 @@
         </is>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2828,11 +3258,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>39.4778</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2856,7 +3288,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.4778</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2864,6 +3296,14 @@
         </is>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2883,11 +3323,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0.172417</v>
-      </c>
-      <c r="E45" t="n">
-        <v>63.6598</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>0.172417</v>
@@ -2901,13 +3345,11 @@
       <c r="I45" t="n">
         <v>63.6598</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J45" t="n">
+        <v>0.172417</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>63.6598</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2915,6 +3357,14 @@
         </is>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2936,11 +3386,13 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2972,6 +3424,14 @@
         </is>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2993,11 +3453,13 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>14.9621</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3021,14 +3483,22 @@
         </is>
       </c>
       <c r="K47" t="n">
+        <v>14.9621</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>14.9763</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>14.9728</v>
       </c>
     </row>
@@ -3050,11 +3520,13 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0216154</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3078,12 +3550,20 @@
         </is>
       </c>
       <c r="K48" t="n">
+        <v>0.0216154</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>14.9762</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>15.0739</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>14.9732</v>
       </c>
     </row>
@@ -3105,11 +3585,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>14.9605</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3133,14 +3615,22 @@
         </is>
       </c>
       <c r="K49" t="n">
+        <v>14.9605</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>14.9767</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>14.9731</v>
       </c>
     </row>
@@ -3162,11 +3652,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>14.9621</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3190,14 +3682,22 @@
         </is>
       </c>
       <c r="K50" t="n">
+        <v>14.9621</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>14.9765</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>14.9728</v>
       </c>
     </row>
@@ -3219,11 +3719,13 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>9.19642</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3247,12 +3749,20 @@
         </is>
       </c>
       <c r="K51" t="n">
+        <v>9.19642</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>14.9768</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>15.0729</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>14.9733</v>
       </c>
     </row>
@@ -3274,11 +3784,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>19.0891</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3302,14 +3814,22 @@
         </is>
       </c>
       <c r="K52" t="n">
+        <v>19.0891</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>19.1096</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>19.1044</v>
       </c>
     </row>
@@ -3331,11 +3851,13 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>19.0876</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3359,14 +3881,22 @@
         </is>
       </c>
       <c r="K53" t="n">
+        <v>19.0876</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>19.1096</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>19.1049</v>
       </c>
     </row>
@@ -3388,11 +3918,13 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>19.0877</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3416,14 +3948,22 @@
         </is>
       </c>
       <c r="K54" t="n">
+        <v>19.0877</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>19.1101</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>19.1046</v>
       </c>
     </row>
@@ -3445,11 +3985,13 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>19.0891</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3473,14 +4015,22 @@
         </is>
       </c>
       <c r="K55" t="n">
+        <v>19.0891</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>19.1098</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>19.1043</v>
       </c>
     </row>
@@ -3502,11 +4052,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>19.0866</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3530,14 +4082,22 @@
         </is>
       </c>
       <c r="K56" t="n">
+        <v>19.0866</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>19.1102</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>19.105</v>
       </c>
     </row>
@@ -3559,11 +4119,13 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>21.0218</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3587,14 +4149,22 @@
         </is>
       </c>
       <c r="K57" t="n">
+        <v>21.0218</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>21.0452</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>21.0391</v>
       </c>
     </row>
@@ -3616,11 +4186,13 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>21.0203</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3644,14 +4216,22 @@
         </is>
       </c>
       <c r="K58" t="n">
+        <v>21.0203</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>21.0452</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>21.0396</v>
       </c>
     </row>
@@ -3673,11 +4253,13 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>21.0204</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3701,14 +4283,22 @@
         </is>
       </c>
       <c r="K59" t="n">
+        <v>21.0204</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>21.0457</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>21.0393</v>
       </c>
     </row>
@@ -3730,11 +4320,13 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>21.0218</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3758,14 +4350,22 @@
         </is>
       </c>
       <c r="K60" t="n">
+        <v>21.0218</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>21.0455</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>21.039</v>
       </c>
     </row>
@@ -3787,11 +4387,13 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>21.0194</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3815,14 +4417,22 @@
         </is>
       </c>
       <c r="K61" t="n">
+        <v>21.0194</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>21.0459</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>21.0397</v>
       </c>
     </row>
@@ -3844,11 +4454,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>22.8743</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3872,14 +4484,22 @@
         </is>
       </c>
       <c r="K62" t="n">
+        <v>22.8743</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>22.9006</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>22.8935</v>
       </c>
     </row>
@@ -3901,11 +4521,13 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>22.8729</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3929,14 +4551,22 @@
         </is>
       </c>
       <c r="K63" t="n">
+        <v>22.8729</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>22.9006</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
         <v>22.8941</v>
       </c>
     </row>
@@ -3958,11 +4588,13 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>22.8729</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3986,14 +4618,22 @@
         </is>
       </c>
       <c r="K64" t="n">
+        <v>22.8729</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>22.9012</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>22.8938</v>
       </c>
     </row>
@@ -4015,11 +4655,13 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>22.8743</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4043,14 +4685,22 @@
         </is>
       </c>
       <c r="K65" t="n">
+        <v>22.8743</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>22.9009</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
         <v>22.8935</v>
       </c>
     </row>
@@ -4072,11 +4722,13 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>22.872</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4100,14 +4752,22 @@
         </is>
       </c>
       <c r="K66" t="n">
+        <v>22.872</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>22.9013</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
         <v>22.8942</v>
       </c>
     </row>
@@ -4129,11 +4789,13 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>26.3578</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4157,14 +4819,22 @@
         </is>
       </c>
       <c r="K67" t="n">
+        <v>26.3578</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>26.3896</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>26.3805</v>
       </c>
     </row>
@@ -4186,11 +4856,13 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>26.3565</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4214,14 +4886,22 @@
         </is>
       </c>
       <c r="K68" t="n">
+        <v>26.3565</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>26.3896</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>26.3811</v>
       </c>
     </row>
@@ -4243,11 +4923,13 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>26.3565</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4271,14 +4953,22 @@
         </is>
       </c>
       <c r="K69" t="n">
+        <v>26.3565</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>26.3902</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>13.195</v>
       </c>
     </row>
@@ -4300,11 +4990,13 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>26.3578</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4328,14 +5020,22 @@
         </is>
       </c>
       <c r="K70" t="n">
+        <v>26.3578</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>26.3899</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>13.234</v>
       </c>
     </row>
@@ -4357,11 +5057,13 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>26.3557</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4385,14 +5087,22 @@
         </is>
       </c>
       <c r="K71" t="n">
+        <v>26.3557</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>26.3904</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>26.3813</v>
       </c>
     </row>
